--- a/data/base_scenario/archetypes/pop_archetypes_building.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65230A12-CD9E-4782-87D3-003B10D1746C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1041FFB2-32D2-421F-9C08-86B407CE88BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Service_closing_min</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
   <si>
     <t>Home</t>
@@ -460,8 +457,8 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +541,7 @@
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -561,14 +558,14 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
+      <c r="G2" s="4">
+        <v>1440</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
+      <c r="I2" s="4">
+        <v>1440</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -768,7 +765,7 @@
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -824,7 +821,7 @@
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -841,14 +838,14 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
+      <c r="G7" s="4">
+        <v>1440</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
+      <c r="I7" s="4">
+        <v>1440</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
@@ -897,14 +894,14 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
+      <c r="G8" s="4">
+        <v>1440</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
+      <c r="I8" s="4">
+        <v>1440</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
@@ -953,14 +950,14 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
+      <c r="G9" s="4">
+        <v>1440</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
+      <c r="I9" s="4">
+        <v>1440</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
@@ -1009,14 +1006,14 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
+      <c r="G10" s="4">
+        <v>1440</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
+      <c r="I10" s="4">
+        <v>1440</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>

--- a/data/base_scenario/archetypes/pop_archetypes_building.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1041FFB2-32D2-421F-9C08-86B407CE88BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BB919-A77C-4CE0-B028-B4790913F795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,8 +457,8 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>

--- a/data/base_scenario/archetypes/pop_archetypes_building.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BB919-A77C-4CE0-B028-B4790913F795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E7028-8878-4744-BF1A-F847ED45C2C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,8 +457,8 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8:B10"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,13 +559,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1440</v>
+        <f>60*48</f>
+        <v>2880</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>1440</v>
+        <f>60*48</f>
+        <v>2880</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>

--- a/data/base_scenario/archetypes/pop_archetypes_building.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E7028-8878-4744-BF1A-F847ED45C2C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3388C2C0-283B-4E89-BD2A-5BB68BB87574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +128,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -173,7 +167,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +450,8 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,42 +552,46 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <f>60*48</f>
-        <v>2880</v>
+        <f>24*60</f>
+        <v>1440</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>60*48</f>
-        <v>2880</v>
+        <f>G2</f>
+        <v>1440</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
+        <f>I2</f>
+        <v>1440</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>O2</f>
+        <v>1440</v>
+      </c>
+      <c r="R2" s="5">
+        <f>Q2</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -605,52 +602,60 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>440</v>
+        <f>7*60</f>
+        <v>420</v>
       </c>
       <c r="D3" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>16.5*60</f>
+        <v>990</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>G3</f>
+        <v>990</v>
+      </c>
+      <c r="J3" s="5">
+        <f>I3</f>
+        <v>990</v>
+      </c>
+      <c r="K3" s="4">
+        <f>7*60</f>
         <v>420</v>
       </c>
-      <c r="G3" s="4">
-        <v>1080</v>
-      </c>
-      <c r="H3" s="4">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1140</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1060</v>
-      </c>
-      <c r="K3" s="7">
-        <v>60</v>
-      </c>
-      <c r="L3" s="7">
-        <v>30</v>
-      </c>
-      <c r="M3" s="7">
-        <v>120</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>-60</v>
-      </c>
-      <c r="P3" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>-120</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f>16.5*60</f>
+        <v>990</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>O3</f>
+        <v>990</v>
+      </c>
+      <c r="R3" s="5">
+        <f>Q3</f>
+        <v>990</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -661,52 +666,68 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>500</v>
+        <f>7.4*60</f>
+        <v>444</v>
       </c>
       <c r="D4" s="4">
-        <v>30</v>
+        <f>1.5*60</f>
+        <v>90</v>
       </c>
       <c r="E4" s="4">
-        <v>540</v>
+        <f>10*60</f>
+        <v>600</v>
       </c>
       <c r="F4" s="4">
+        <f>7*60</f>
         <v>420</v>
       </c>
       <c r="G4" s="4">
-        <v>1260</v>
+        <f>17*60</f>
+        <v>1020</v>
       </c>
       <c r="H4" s="4">
-        <v>120</v>
+        <f>0.2*60</f>
+        <v>12</v>
       </c>
       <c r="I4" s="4">
-        <v>1320</v>
+        <f>23*60</f>
+        <v>1380</v>
       </c>
       <c r="J4" s="5">
+        <f>20*60</f>
+        <v>1200</v>
+      </c>
+      <c r="K4" s="4">
+        <f>7.4*60</f>
+        <v>444</v>
+      </c>
+      <c r="L4" s="4">
+        <f>1.5*60</f>
+        <v>90</v>
+      </c>
+      <c r="M4" s="4">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+      <c r="N4" s="4">
+        <f>7*60</f>
+        <v>420</v>
+      </c>
+      <c r="O4" s="4">
+        <f>17*60</f>
         <v>1020</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
+      <c r="P4" s="4">
+        <f>0.2*60</f>
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>23*60</f>
+        <v>1380</v>
+      </c>
+      <c r="R4" s="5">
+        <f>20*60</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -717,52 +738,66 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>480</v>
+        <f>7.4*60</f>
+        <v>444</v>
       </c>
       <c r="D5" s="4">
-        <v>60</v>
+        <f>1.5*60</f>
+        <v>90</v>
       </c>
       <c r="E5" s="4">
+        <f>10*60</f>
         <v>600</v>
       </c>
       <c r="F5" s="4">
+        <f>7*60</f>
         <v>420</v>
       </c>
       <c r="G5" s="4">
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="H5" s="4">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4">
+        <f>19*60</f>
         <v>1140</v>
       </c>
-      <c r="H5" s="4">
-        <v>180</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1440</v>
-      </c>
       <c r="J5" s="5">
-        <v>1020</v>
-      </c>
-      <c r="K5" s="7">
-        <v>60</v>
-      </c>
-      <c r="L5" s="7">
-        <v>30</v>
-      </c>
-      <c r="M5" s="7">
-        <v>120</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>-60</v>
-      </c>
-      <c r="P5" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>-120</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="K5" s="4">
+        <f>7.4*60</f>
+        <v>444</v>
+      </c>
+      <c r="L5" s="4">
+        <f>1.5*60</f>
+        <v>90</v>
+      </c>
+      <c r="M5" s="4">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+      <c r="N5" s="4">
+        <f>7*60</f>
+        <v>420</v>
+      </c>
+      <c r="O5" s="4">
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="P5" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>19*60</f>
+        <v>1140</v>
+      </c>
+      <c r="R5" s="5">
+        <f>18*60</f>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -773,52 +808,66 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>480</v>
+        <f>7.4*60</f>
+        <v>444</v>
       </c>
       <c r="D6" s="4">
-        <v>45</v>
+        <f>1.5*60</f>
+        <v>90</v>
       </c>
       <c r="E6" s="4">
-        <v>540</v>
+        <f>10*60</f>
+        <v>600</v>
       </c>
       <c r="F6" s="4">
+        <f>7*60</f>
         <v>420</v>
       </c>
       <c r="G6" s="4">
-        <v>1260</v>
+        <f>18*60</f>
+        <v>1080</v>
       </c>
       <c r="H6" s="4">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4">
-        <v>1320</v>
+        <f>19*60</f>
+        <v>1140</v>
       </c>
       <c r="J6" s="5">
-        <v>960</v>
-      </c>
-      <c r="K6" s="7">
-        <v>60</v>
-      </c>
-      <c r="L6" s="7">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>120</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>-60</v>
-      </c>
-      <c r="P6" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>-120</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="K6" s="4">
+        <f>7.4*60</f>
+        <v>444</v>
+      </c>
+      <c r="L6" s="4">
+        <f>1.5*60</f>
+        <v>90</v>
+      </c>
+      <c r="M6" s="4">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+      <c r="N6" s="4">
+        <f>7*60</f>
+        <v>420</v>
+      </c>
+      <c r="O6" s="4">
+        <f>18*60</f>
+        <v>1080</v>
+      </c>
+      <c r="P6" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>19*60</f>
+        <v>1140</v>
+      </c>
+      <c r="R6" s="5">
+        <f>18*60</f>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -841,40 +890,46 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" ref="G3:G10" si="0">24*60</f>
         <v>1440</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <f>G7</f>
         <v>1440</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
+        <f>I7</f>
+        <v>1440</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" ref="O7:O10" si="1">24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>O7</f>
+        <v>1440</v>
+      </c>
+      <c r="R7" s="5">
+        <f>Q7</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -897,40 +952,46 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <f>G8</f>
         <v>1440</v>
       </c>
       <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
+        <f>I8</f>
+        <v>1440</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>O8</f>
+        <v>1440</v>
+      </c>
+      <c r="R8" s="5">
+        <f>Q8</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -953,40 +1014,46 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <f>G9</f>
         <v>1440</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
+        <f>I9</f>
+        <v>1440</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>O9</f>
+        <v>1440</v>
+      </c>
+      <c r="R9" s="5">
+        <f>Q9</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -996,10 +1063,10 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="E10" s="4">
@@ -1009,40 +1076,46 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <f>G10</f>
         <v>1440</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
+        <f>I10</f>
+        <v>1440</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>O10</f>
+        <v>1440</v>
+      </c>
+      <c r="R10" s="5">
+        <f>Q10</f>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_scenario/archetypes/pop_archetypes_building.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3388C2C0-283B-4E89-BD2A-5BB68BB87574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E7028-8878-4744-BF1A-F847ED45C2C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,6 +173,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,8 +457,8 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,46 +559,42 @@
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <f>24*60</f>
-        <v>1440</v>
+        <f>60*48</f>
+        <v>2880</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>G2</f>
-        <v>1440</v>
+        <f>60*48</f>
+        <v>2880</v>
       </c>
       <c r="J2" s="5">
-        <f>I2</f>
-        <v>1440</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <f>24*60</f>
-        <v>1440</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>O2</f>
-        <v>1440</v>
-      </c>
-      <c r="R2" s="5">
-        <f>Q2</f>
-        <v>1440</v>
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -602,60 +605,52 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <f>7*60</f>
+        <v>440</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>510</v>
+      </c>
+      <c r="F3" s="4">
         <v>420</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
       <c r="G3" s="4">
-        <f>16.5*60</f>
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I3" s="4">
-        <f>G3</f>
-        <v>990</v>
+        <v>1140</v>
       </c>
       <c r="J3" s="5">
-        <f>I3</f>
-        <v>990</v>
-      </c>
-      <c r="K3" s="4">
-        <f>7*60</f>
-        <v>420</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <f>16.5*60</f>
-        <v>990</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>O3</f>
-        <v>990</v>
-      </c>
-      <c r="R3" s="5">
-        <f>Q3</f>
-        <v>990</v>
+        <v>1060</v>
+      </c>
+      <c r="K3" s="7">
+        <v>60</v>
+      </c>
+      <c r="L3" s="7">
+        <v>30</v>
+      </c>
+      <c r="M3" s="7">
+        <v>120</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>-60</v>
+      </c>
+      <c r="P3" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>-120</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -666,68 +661,52 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f>7.4*60</f>
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="D4" s="4">
-        <f>1.5*60</f>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4">
-        <f>10*60</f>
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F4" s="4">
-        <f>7*60</f>
         <v>420</v>
       </c>
       <c r="G4" s="4">
-        <f>17*60</f>
+        <v>1260</v>
+      </c>
+      <c r="H4" s="4">
+        <v>120</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1320</v>
+      </c>
+      <c r="J4" s="5">
         <v>1020</v>
       </c>
-      <c r="H4" s="4">
-        <f>0.2*60</f>
-        <v>12</v>
-      </c>
-      <c r="I4" s="4">
-        <f>23*60</f>
-        <v>1380</v>
-      </c>
-      <c r="J4" s="5">
-        <f>20*60</f>
-        <v>1200</v>
-      </c>
-      <c r="K4" s="4">
-        <f>7.4*60</f>
-        <v>444</v>
-      </c>
-      <c r="L4" s="4">
-        <f>1.5*60</f>
-        <v>90</v>
-      </c>
-      <c r="M4" s="4">
-        <f>10*60</f>
-        <v>600</v>
-      </c>
-      <c r="N4" s="4">
-        <f>7*60</f>
-        <v>420</v>
-      </c>
-      <c r="O4" s="4">
-        <f>17*60</f>
-        <v>1020</v>
-      </c>
-      <c r="P4" s="4">
-        <f>0.2*60</f>
-        <v>12</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>23*60</f>
-        <v>1380</v>
-      </c>
-      <c r="R4" s="5">
-        <f>20*60</f>
-        <v>1200</v>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -738,66 +717,52 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <f>7.4*60</f>
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D5" s="4">
-        <f>1.5*60</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4">
-        <f>10*60</f>
         <v>600</v>
       </c>
       <c r="F5" s="4">
-        <f>7*60</f>
         <v>420</v>
       </c>
       <c r="G5" s="4">
-        <f>18*60</f>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="H5" s="4">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I5" s="4">
-        <f>19*60</f>
-        <v>1140</v>
+        <v>1440</v>
       </c>
       <c r="J5" s="5">
-        <f>18*60</f>
-        <v>1080</v>
-      </c>
-      <c r="K5" s="4">
-        <f>7.4*60</f>
-        <v>444</v>
-      </c>
-      <c r="L5" s="4">
-        <f>1.5*60</f>
-        <v>90</v>
-      </c>
-      <c r="M5" s="4">
-        <f>10*60</f>
-        <v>600</v>
-      </c>
-      <c r="N5" s="4">
-        <f>7*60</f>
-        <v>420</v>
-      </c>
-      <c r="O5" s="4">
-        <f>18*60</f>
-        <v>1080</v>
-      </c>
-      <c r="P5" s="4">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>19*60</f>
-        <v>1140</v>
-      </c>
-      <c r="R5" s="5">
-        <f>18*60</f>
-        <v>1080</v>
+        <v>1020</v>
+      </c>
+      <c r="K5" s="7">
+        <v>60</v>
+      </c>
+      <c r="L5" s="7">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7">
+        <v>120</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>-60</v>
+      </c>
+      <c r="P5" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>-120</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -808,66 +773,52 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <f>7.4*60</f>
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D6" s="4">
-        <f>1.5*60</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4">
-        <f>10*60</f>
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F6" s="4">
-        <f>7*60</f>
         <v>420</v>
       </c>
       <c r="G6" s="4">
-        <f>18*60</f>
-        <v>1080</v>
+        <v>1260</v>
       </c>
       <c r="H6" s="4">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I6" s="4">
-        <f>19*60</f>
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="J6" s="5">
-        <f>18*60</f>
-        <v>1080</v>
-      </c>
-      <c r="K6" s="4">
-        <f>7.4*60</f>
-        <v>444</v>
-      </c>
-      <c r="L6" s="4">
-        <f>1.5*60</f>
-        <v>90</v>
-      </c>
-      <c r="M6" s="4">
-        <f>10*60</f>
-        <v>600</v>
-      </c>
-      <c r="N6" s="4">
-        <f>7*60</f>
-        <v>420</v>
-      </c>
-      <c r="O6" s="4">
-        <f>18*60</f>
-        <v>1080</v>
-      </c>
-      <c r="P6" s="4">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>19*60</f>
-        <v>1140</v>
-      </c>
-      <c r="R6" s="5">
-        <f>18*60</f>
-        <v>1080</v>
+        <v>960</v>
+      </c>
+      <c r="K6" s="7">
+        <v>60</v>
+      </c>
+      <c r="L6" s="7">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>120</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-60</v>
+      </c>
+      <c r="P6" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>-120</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -890,46 +841,40 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G3:G10" si="0">24*60</f>
         <v>1440</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f>G7</f>
         <v>1440</v>
       </c>
       <c r="J7" s="5">
-        <f>I7</f>
-        <v>1440</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" ref="O7:O10" si="1">24*60</f>
-        <v>1440</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>O7</f>
-        <v>1440</v>
-      </c>
-      <c r="R7" s="5">
-        <f>Q7</f>
-        <v>1440</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -952,46 +897,40 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f>G8</f>
         <v>1440</v>
       </c>
       <c r="J8" s="5">
-        <f>I8</f>
-        <v>1440</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="1"/>
-        <v>1440</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>O8</f>
-        <v>1440</v>
-      </c>
-      <c r="R8" s="5">
-        <f>Q8</f>
-        <v>1440</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1014,46 +953,40 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f>G9</f>
         <v>1440</v>
       </c>
       <c r="J9" s="5">
-        <f>I9</f>
-        <v>1440</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="1"/>
-        <v>1440</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>O9</f>
-        <v>1440</v>
-      </c>
-      <c r="R9" s="5">
-        <f>Q9</f>
-        <v>1440</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1063,10 +996,10 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
         <v>0</v>
       </c>
       <c r="E10" s="4">
@@ -1076,46 +1009,40 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f>G10</f>
         <v>1440</v>
       </c>
       <c r="J10" s="5">
-        <f>I10</f>
-        <v>1440</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="1"/>
-        <v>1440</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>O10</f>
-        <v>1440</v>
-      </c>
-      <c r="R10" s="5">
-        <f>Q10</f>
-        <v>1440</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_scenario/archetypes/pop_archetypes_building.xlsx
+++ b/data/base_scenario/archetypes/pop_archetypes_building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E7028-8878-4744-BF1A-F847ED45C2C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D62A5-758D-49B0-9E94-4FBB3A9BD357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Salariat</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -454,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,6 +1054,177 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>500</v>
+      </c>
+      <c r="D11" s="4">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>540</v>
+      </c>
+      <c r="F11" s="4">
+        <v>420</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1260</v>
+      </c>
+      <c r="H11" s="4">
+        <v>120</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1320</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1020</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>500</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <v>540</v>
+      </c>
+      <c r="F12" s="4">
+        <v>420</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1260</v>
+      </c>
+      <c r="H12" s="4">
+        <v>120</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1320</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1020</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>500</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
+        <v>540</v>
+      </c>
+      <c r="F13" s="4">
+        <v>420</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1260</v>
+      </c>
+      <c r="H13" s="4">
+        <v>120</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1320</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1020</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
